--- a/input/InputSample.xlsx
+++ b/input/InputSample.xlsx
@@ -57,18 +57,158 @@
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:rotation-align="none"/>
     </style:style>
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#ffc000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border="0.74pt solid #000000" style:rotation-align="none"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
     <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border="0.74pt solid #000000" style:rotation-align="none"/>
       <style:text-properties fo:color="#404040" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Times New Roman" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Times New Roman" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+    </style:style>
+    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Tahoma" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Tahoma" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
+    </style:style>
+    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
+    </style:style>
+    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
     <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="0.74pt solid #000000" style:rotation-align="none" fo:border-top="none"/>
       <style:text-properties fo:color="#404040" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Times New Roman" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Times New Roman" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
+    </style:style>
+    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#8ea9db" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#8ea9db" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce38" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="0.74pt solid #000000" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce39" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="0.74pt solid #000000" style:rotation-align="none" fo:border-top="none"/>
+    </style:style>
     <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
       <style:text-properties fo:color="#404040" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Times New Roman" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Times New Roman" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce40" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#8ea9db" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce41" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#8ea9db" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
     <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
       <style:text-properties fo:color="#404040" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Times New Roman" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Times New Roman" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
@@ -92,142 +232,180 @@
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce83" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:rotation-align="none"/>
+    </style:style>
+    <style:style style:name="ce84" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border="0.74pt solid #000000" style:rotation-align="none"/>
+      <style:text-properties fo:color="#404040" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Times New Roman" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Times New Roman" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce85" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="0.74pt solid #000000" style:rotation-align="none" fo:border-top="none"/>
+      <style:text-properties fo:color="#404040" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Times New Roman" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Times New Roman" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce86" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
+      <style:text-properties fo:color="#404040" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Times New Roman" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Times New Roman" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce87" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
+      <style:text-properties fo:color="#404040" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Times New Roman" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Times New Roman" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce88" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce89" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border="0.74pt solid #000000" style:rotation-align="none"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce90" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Tahoma" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Tahoma" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce91" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce92" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce93" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce94" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce95" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce96" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#ffc000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border="0.74pt solid #000000" style:rotation-align="none"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce97" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce98" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce99" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce100" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce101" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce102" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce103" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce104" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="none" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce105" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
     </style:style>
-    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce106" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Tahoma" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Tahoma" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce107" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
     </style:style>
-    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce108" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#fce4d6" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce109" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="#ffffff" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
     </style:style>
-    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce110" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#e2efda" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce111" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce112" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce113" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
     </style:style>
-    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce114" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce115" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce116" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="none"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce117" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#ffff00" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="none" style:rotation-align="none" fo:border-top="0.74pt solid #000000"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce118" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#8ea9db" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce119" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#8ea9db" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="none" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="0.74pt solid #000000" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce38" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce120" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="0.74pt solid #000000" style:rotation-align="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce39" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce121" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:border-left="0.74pt solid #000000" fo:border-right="0.74pt solid #000000" style:rotation-align="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce40" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce122" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.74pt solid #000000" fo:background-color="#8ea9db" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border-left="0.74pt solid #000000" style:direction="ltr" fo:border-right="0.74pt solid #000000" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" fo:border-top="none" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce41" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce123" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:background-color="#8ea9db" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
@@ -237,35 +415,35 @@
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
-        <table:table-column table:style-name="co1" table:default-cell-style-name="ce2"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce14"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce15"/>
-        <table:table-column table:style-name="co4" table:default-cell-style-name="ce30"/>
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce32"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce32"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="ce1"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="ce38"/>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce8" office:value-type="string" calcext:value-type="string">
+        <table:table-column table:style-name="co1" table:default-cell-style-name="ce84"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce96"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="ce97"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="ce112"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="ce114"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce114"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce83"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce120"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce83"/>
+          <table:table-cell table:style-name="ce90" office:value-type="string" calcext:value-type="string">
             <text:p>Col 1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce8" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce90" office:value-type="string" calcext:value-type="string">
             <text:p>Col 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce106" office:value-type="string" calcext:value-type="string">
             <text:p>Col 3</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce106" office:value-type="string" calcext:value-type="string">
             <text:p>Col 4</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce106" office:value-type="string" calcext:value-type="string">
             <text:p>Col 5</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce24" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce106" office:value-type="string" calcext:value-type="string">
             <text:p>Col 6</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce89" office:value-type="string" calcext:value-type="string">
             <text:p>Col 7</text:p>
           </table:table-cell>
         </table:table-row>
@@ -273,245 +451,245 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Row 1: SpecialPlayer(SP)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce91" office:value-type="string" calcext:value-type="string">
             <text:p>
               <text:s/>
               Existing SP? 0(No) || 1(Yes)
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce16" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce98" office:value-type="string" calcext:value-type="string">
             <text:p>n*: Number of Properties</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce25"/>
-          <table:table-cell table:style-name="ce31" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce107"/>
+          <table:table-cell table:style-name="ce113" table:number-columns-repeated="3"/>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce85" office:value-type="string" calcext:value-type="string">
             <text:p>Row 2: Properties(P*)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce92" office:value-type="string" calcext:value-type="string">
             <text:p>P1*</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce16" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce98" office:value-type="string" calcext:value-type="string">
             <text:p>P2*...</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce26" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce108" office:value-type="string" calcext:value-type="string">
             <text:p>...Pn*</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce32"/>
+          <table:table-cell table:style-name="ce114"/>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Row 3: Weight(W*)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce93" office:value-type="string" calcext:value-type="string">
             <text:p>W1*</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce17" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce99" office:value-type="string" calcext:value-type="string">
             <text:p>W2*...</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce26" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce108" office:value-type="string" calcext:value-type="string">
             <text:p>...Wn*</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce32"/>
+          <table:table-cell table:style-name="ce114"/>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Row 4: NormalPlayer(NP) </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce94" office:value-type="string" calcext:value-type="string">
             <text:p>m:The number of NP</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce18" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce100" office:value-type="string" calcext:value-type="string">
             <text:p>n: Number of properties each strategy</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce27"/>
+          <table:table-cell table:style-name="ce109"/>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce32"/>
+          <table:table-cell table:style-name="ce114"/>
           <table:table-cell/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Row 5: Weight per Property</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce95" office:value-type="string" calcext:value-type="string">
             <text:p>W1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce19" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce101" office:value-type="string" calcext:value-type="string">
             <text:p>W2...</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce28" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce110" office:value-type="string" calcext:value-type="string">
             <text:p>...Wn</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce33" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce39"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce115" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce121"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce86" office:value-type="string" calcext:value-type="string">
             <text:p>Row 6: Player1 </text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>The number of Player 1's Strategies</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce20" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce102" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 1-props 1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce29" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce111" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 1-props 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce34" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce116" office:value-type="string" calcext:value-type="string">
             <text:p>...Strategy 1-props n</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce36" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce118" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 2 props 1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce36" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce118" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 2-props 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce40" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce122" office:value-type="string" calcext:value-type="string">
             <text:p>...Strategy 2-props n</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce86" office:value-type="string" calcext:value-type="string">
             <text:p>Row 7: Player 2 </text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>The number of Player 2's Strategies</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce103" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 1-props 1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 1-props 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce35" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce117" office:value-type="string" calcext:value-type="string">
             <text:p>...Strategy 1-props n</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce37" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce119" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 2 props 1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce37" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce119" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 2-props 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce41" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce123" office:value-type="string" calcext:value-type="string">
             <text:p>...Strategy 2-props n</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce86" office:value-type="string" calcext:value-type="string">
             <text:p>......</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>..........</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce103" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 1-props 1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 1-props 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce35" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce117" office:value-type="string" calcext:value-type="string">
             <text:p>...Strategy 1-props n</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce37" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce119" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 2 props 1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce37" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce119" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 2-props 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce41" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce123" office:value-type="string" calcext:value-type="string">
             <text:p>...Strategy 2-props n</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce87" office:value-type="string" calcext:value-type="string">
             <text:p>Row i: Player m</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>The number of Player m's Strategies</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce104" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 1-props 1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 1-props 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce35" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce117" office:value-type="string" calcext:value-type="string">
             <text:p>...Strategy 1-props n</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce37" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce119" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 2 props 1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce37" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce119" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy 2-props 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce41" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce123" office:value-type="string" calcext:value-type="string">
             <text:p>...Strategy 2-props n</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce88" office:value-type="string" calcext:value-type="string">
             <text:p>STRATEGIES CONFLICT DATA SET</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce23"/>
-          <table:table-cell table:style-name="ce1" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce83"/>
+          <table:table-cell table:style-name="ce105"/>
+          <table:table-cell table:style-name="ce83" table:number-columns-repeated="3"/>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce83"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce89" office:value-type="string" calcext:value-type="string">
             <text:p>Row i+1: Player 1</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce97" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy Pairs*: PlayerNo, StratNo, PLayerNo Strat No</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Strategy Pairs*</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce15" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce97" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy Pairs*</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce83"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce89" office:value-type="string" calcext:value-type="string">
             <text:p>Row i+2: Player 2</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce97" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy Pairs*</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Strategy Pairs*</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce15" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce97" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy Pairs*</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce83"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce89" office:value-type="string" calcext:value-type="string">
             <text:p>Row i+3: Player 3</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce97" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy Pairs*</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Strategy Pairs*</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3" table:style-name="ce15" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:number-columns-repeated="3" table:style-name="ce97" office:value-type="string" calcext:value-type="string">
             <text:p>Strategy Pairs*</text:p>
           </table:table-cell>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1"/>
+          <table:table-cell table:style-name="ce83"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -527,8 +705,8 @@
     <dc:date>2022-05-25T22:05:20.381067100</dc:date>
     <meta:editing-duration>PT2M9S</meta:editing-duration>
     <meta:editing-cycles>1</meta:editing-cycles>
+    <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="76" meta:object-count="0"/>
-    <meta:generator>LibreOffice/6.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
   </office:meta>
 </office:document-meta>
 </file>
@@ -546,14 +724,14 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">1</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
@@ -602,8 +780,9 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAtAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
@@ -614,7 +793,7 @@
       <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
       <config:config-item config:name="SaveThumbnail" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
@@ -648,25 +827,12 @@
     <number:number-style style:name="N0">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:currency-style style:name="N121P0" style:volatile="true">
+    <number:currency-style style:name="N122P0" style:volatile="true">
       <number:currency-symbol/>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N121">
-      <number:text>(</number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N121P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N122P0" style:volatile="true">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
     <number:currency-style style:name="N122">
-      <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
@@ -675,73 +841,72 @@
     </number:currency-style>
     <number:currency-style style:name="N123P0" style:volatile="true">
       <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N123">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>(</number:text>
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N123P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N125P0" style:volatile="true">
+      <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N123">
+    <number:currency-style style:name="N125">
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N123P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N124P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N125P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N126P0" style:volatile="true">
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N124">
+    <number:currency-style style:name="N126">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N124P0"/>
-    </number:currency-style>
-    <number:date-style style:name="N125">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N126P0"/>
+    </number:currency-style>
+    <number:date-style style:name="N127">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
       <number:text>/</number:text>
       <number:year number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N126">
+    <number:date-style style:name="N128">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N127">
+    <number:date-style style:name="N129">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N128">
+    <number:date-style style:name="N130">
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N129">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
-    <number:time-style style:name="N130">
-      <number:hours/>
-      <number:text>:</number:text>
-      <number:minutes number:style="long"/>
-      <number:text>:</number:text>
-      <number:seconds number:style="long"/>
-      <number:text> </number:text>
-      <number:am-pm/>
-    </number:time-style>
     <number:time-style style:name="N131">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
     </number:time-style>
     <number:time-style style:name="N132">
       <number:hours/>
@@ -749,8 +914,22 @@
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
+      <number:text> </number:text>
+      <number:am-pm/>
     </number:time-style>
-    <number:date-style style:name="N133">
+    <number:time-style style:name="N133">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+    </number:time-style>
+    <number:time-style style:name="N134">
+      <number:hours/>
+      <number:text>:</number:text>
+      <number:minutes number:style="long"/>
+      <number:text>:</number:text>
+      <number:seconds number:style="long"/>
+    </number:time-style>
+    <number:date-style style:name="N135">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
@@ -761,160 +940,154 @@
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
     </number:date-style>
-    <number:number-style style:name="N134P0" style:volatile="true">
+    <number:number-style style:name="N137P0" style:volatile="true">
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N134">
+    <number:number-style style:name="N137">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N134P0"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N137P0"/>
     </number:number-style>
-    <number:number-style style:name="N135P0" style:volatile="true">
+    <number:number-style style:name="N139P0" style:volatile="true">
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N135">
+    <number:number-style style:name="N139">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N135P0"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N139P0"/>
     </number:number-style>
-    <number:number-style style:name="N136P0" style:volatile="true">
+    <number:number-style style:name="N143P0" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N136P1" style:volatile="true">
+    <number:number-style style:name="N143P1" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N136P2" style:volatile="true">
+    <number:number-style style:name="N143P2" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>- </number:text>
     </number:number-style>
-    <number:text-style style:name="N136">
+    <number:text-style style:name="N143">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N136P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N136P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N136P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N143P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N143P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N143P2"/>
     </number:text-style>
-    <number:currency-style style:name="N137P0" style:volatile="true">
-      <number:text> </number:text>
+    <number:currency-style style:name="N147P0" style:volatile="true">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N137P1" style:volatile="true">
-      <number:text> </number:text>
+    <number:currency-style style:name="N147P1" style:volatile="true">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:currency-style>
-    <number:currency-style style:name="N137P2" style:volatile="true">
-      <number:text> </number:text>
+    <number:currency-style style:name="N147P2" style:volatile="true">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>- </number:text>
     </number:currency-style>
-    <number:text-style style:name="N137">
+    <number:text-style style:name="N147">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N137P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N137P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N137P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N147P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N147P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N147P2"/>
     </number:text-style>
-    <number:number-style style:name="N138P0" style:volatile="true">
+    <number:number-style style:name="N151P0" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N138P1" style:volatile="true">
+    <number:number-style style:name="N151P1" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N138P2" style:volatile="true">
+    <number:number-style style:name="N151P2" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N138">
+    <number:text-style style:name="N151">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N138P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N138P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N138P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N151P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N151P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N151P2"/>
     </number:text-style>
-    <number:currency-style style:name="N139P0" style:volatile="true">
-      <number:text> </number:text>
+    <number:currency-style style:name="N155P0" style:volatile="true">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:currency-style style:name="N139P1" style:volatile="true">
-      <number:text> </number:text>
+    <number:currency-style style:name="N155P1" style:volatile="true">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:currency-style>
-    <number:currency-style style:name="N139P2" style:volatile="true">
-      <number:text> </number:text>
+    <number:currency-style style:name="N155P2" style:volatile="true">
       <number:currency-symbol/>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:currency-style>
-    <number:text-style style:name="N139">
+    <number:text-style style:name="N155">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N139P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N139P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N139P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N155P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N155P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N155P2"/>
     </number:text-style>
-    <number:time-style style:name="N140">
+    <number:time-style style:name="N156">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N141" number:truncate-on-overflow="false">
+    <number:time-style style:name="N157" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N142">
+    <number:time-style style:name="N158">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N143">
+    <number:number-style style:name="N159">
       <number:scientific-number number:decimal-places="1" loext:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" loext:exponent-interval="3" loext:forced-exponent-sign="true"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell"/>
@@ -1029,9 +1202,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2022-05-25">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2022-05-26">00/00/0000</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="22:36:06.546618832">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
